--- a/индекс прошивок устройств/index.xlsx
+++ b/индекс прошивок устройств/index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Номер усо </t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Примечания</t>
+  </si>
+  <si>
+    <t>00005</t>
+  </si>
+  <si>
+    <t>ddfc9b811452d05110ed34a9596ddb7d5b40e890</t>
+  </si>
+  <si>
+    <t>Первое миниУСО со старым и новым протоколом</t>
   </si>
 </sst>
 </file>
@@ -73,9 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -370,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -381,7 +391,7 @@
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -407,6 +417,20 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>41712</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/индекс прошивок устройств/index.xlsx
+++ b/индекс прошивок устройств/index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t xml:space="preserve">Номер усо </t>
   </si>
@@ -46,6 +46,33 @@
   </si>
   <si>
     <t>Первое миниУСО со старым и новым протоколом</t>
+  </si>
+  <si>
+    <t>00006</t>
+  </si>
+  <si>
+    <t>74aa9118a9200954a2355ada62bb85e29b391c5b</t>
+  </si>
+  <si>
+    <t>00007</t>
+  </si>
+  <si>
+    <t>Адрес 1</t>
+  </si>
+  <si>
+    <t>Адрес 2</t>
+  </si>
+  <si>
+    <t>00008</t>
+  </si>
+  <si>
+    <t>Адрес 3</t>
+  </si>
+  <si>
+    <t>00009</t>
+  </si>
+  <si>
+    <t>Адрес 4</t>
   </si>
 </sst>
 </file>
@@ -380,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -433,6 +460,62 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>41750</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41750</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
+        <v>41750</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>41750</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/индекс прошивок устройств/index.xlsx
+++ b/индекс прошивок устройств/index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t xml:space="preserve">Номер усо </t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Адрес 4</t>
+  </si>
+  <si>
+    <t>00010</t>
+  </si>
+  <si>
+    <t>00011</t>
+  </si>
+  <si>
+    <t>Адрес 5</t>
   </si>
 </sst>
 </file>
@@ -407,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -516,6 +525,34 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>42060</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>42060</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/индекс прошивок устройств/index.xlsx
+++ b/индекс прошивок устройств/index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t xml:space="preserve">Номер усо </t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>Адрес 5</t>
+  </si>
+  <si>
+    <t>Адрес 6</t>
+  </si>
+  <si>
+    <t>00012</t>
+  </si>
+  <si>
+    <t>00013</t>
+  </si>
+  <si>
+    <t>Адрес 7</t>
   </si>
 </sst>
 </file>
@@ -416,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -551,6 +563,34 @@
       </c>
       <c r="D9" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42061</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2">
+        <v>42061</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
